--- a/Assembly/strep_assembly_stats.xlsx
+++ b/Assembly/strep_assembly_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -145,12 +145,21 @@
   </si>
   <si>
     <t>S. albus</t>
+  </si>
+  <si>
+    <t>BKM (norm)</t>
+  </si>
+  <si>
+    <t>H021 (norm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -243,7 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,6 +266,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -607,10 +618,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -698,16 +709,16 @@
         <v>305</v>
       </c>
       <c r="C3">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="D3" s="1">
-        <v>9115013</v>
+        <v>9123526</v>
       </c>
       <c r="E3" s="1">
-        <v>1573165</v>
+        <v>1579490</v>
       </c>
       <c r="F3" s="1">
-        <v>339243</v>
+        <v>947108</v>
       </c>
       <c r="G3" s="1">
         <v>6376808</v>
@@ -728,25 +739,25 @@
         <v>69.22</v>
       </c>
       <c r="M3">
-        <v>209.88</v>
+        <v>209.68</v>
       </c>
       <c r="N3">
-        <v>145.28</v>
+        <v>145.13999999999999</v>
       </c>
       <c r="O3">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="P3">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="1">
-        <v>8960535</v>
+        <v>8954890</v>
       </c>
       <c r="R3">
         <v>71.099999999999994</v>
       </c>
       <c r="S3" s="3">
-        <v>0.21527777777777779</v>
+        <v>0.21805555555555556</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -757,16 +768,16 @@
         <v>2360</v>
       </c>
       <c r="C4">
-        <v>2360</v>
+        <v>2331</v>
       </c>
       <c r="D4" s="1">
-        <v>9721547</v>
+        <v>9775545</v>
       </c>
       <c r="E4" s="1">
-        <v>700630</v>
+        <v>704664</v>
       </c>
       <c r="F4" s="1">
-        <v>240716</v>
+        <v>280754</v>
       </c>
       <c r="G4" s="1">
         <v>15984844</v>
@@ -787,401 +798,519 @@
         <v>70.069999999999993</v>
       </c>
       <c r="M4">
-        <v>493.28</v>
+        <v>490.56</v>
       </c>
       <c r="N4">
-        <v>345.66</v>
+        <v>343.75</v>
       </c>
       <c r="O4">
-        <v>488</v>
+        <v>367</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <v>8069790</v>
+        <v>7896772</v>
       </c>
       <c r="R4">
         <v>71.8</v>
       </c>
       <c r="S4" s="3">
-        <v>0.60625000000000007</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1">
-        <v>8087573</v>
+        <v>7754948</v>
       </c>
       <c r="E5" s="1">
-        <v>798222</v>
+        <v>981968</v>
       </c>
       <c r="F5" s="1">
-        <v>386799</v>
+        <v>447215</v>
       </c>
       <c r="G5" s="1">
-        <v>4517426</v>
+        <v>7197432</v>
       </c>
       <c r="H5" s="1">
-        <v>4335036</v>
+        <v>7196183</v>
       </c>
       <c r="I5" s="6">
-        <v>95.96</v>
+        <v>99.98</v>
       </c>
       <c r="J5" s="1">
-        <v>1355227800</v>
+        <v>1571351722</v>
       </c>
       <c r="K5" s="1">
-        <v>894127750</v>
-      </c>
-      <c r="L5" s="6">
-        <v>65.98</v>
+        <v>1571307956</v>
+      </c>
+      <c r="L5" s="9">
+        <v>99.99</v>
       </c>
       <c r="M5" s="6">
-        <v>167.57</v>
-      </c>
-      <c r="N5" s="6">
-        <v>110.56</v>
-      </c>
-      <c r="O5" s="6">
-        <v>132</v>
-      </c>
-      <c r="P5" s="6">
-        <v>94</v>
+        <v>202.63</v>
+      </c>
+      <c r="N5">
+        <v>202.62</v>
+      </c>
+      <c r="O5">
+        <v>199</v>
+      </c>
+      <c r="P5">
+        <v>180</v>
       </c>
       <c r="Q5" s="1">
-        <v>8002307</v>
-      </c>
-      <c r="R5" s="6">
-        <v>72.599999999999994</v>
+        <v>7717832</v>
+      </c>
+      <c r="R5">
+        <v>72.2</v>
       </c>
       <c r="S5" s="3">
-        <v>0.14861111111111111</v>
+        <v>0.26527777777777778</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>631</v>
+        <v>178</v>
       </c>
       <c r="C6">
-        <v>631</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1">
-        <v>8922734</v>
+        <v>8090646</v>
       </c>
       <c r="E6" s="1">
-        <v>761529</v>
+        <v>804804</v>
       </c>
       <c r="F6" s="1">
-        <v>309232</v>
+        <v>488914</v>
       </c>
       <c r="G6" s="1">
-        <v>8047424</v>
+        <v>4517426</v>
       </c>
       <c r="H6" s="1">
-        <v>7727689</v>
+        <v>4335036</v>
       </c>
       <c r="I6" s="6">
-        <v>96.03</v>
+        <v>95.96</v>
       </c>
       <c r="J6" s="1">
-        <v>2414227200</v>
+        <v>1355227800</v>
       </c>
       <c r="K6" s="1">
-        <v>1682127738</v>
+        <v>894127750</v>
       </c>
       <c r="L6" s="6">
-        <v>69.680000000000007</v>
+        <v>65.98</v>
       </c>
       <c r="M6" s="6">
-        <v>270.57</v>
+        <v>167.51</v>
       </c>
       <c r="N6" s="6">
-        <v>188.52</v>
+        <v>110.51</v>
       </c>
       <c r="O6" s="6">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="P6" s="6">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="1">
-        <v>8500802</v>
+        <v>7999729</v>
       </c>
       <c r="R6" s="6">
-        <v>71.3</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="S6" s="3">
-        <v>0.2951388888888889</v>
+        <v>0.16527777777777777</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>631</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8936389</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1609583</v>
+      </c>
+      <c r="F7" s="1">
+        <v>498848</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8047424</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7727689</v>
+      </c>
+      <c r="I7" s="6">
+        <v>96.03</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2414227200</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1682127738</v>
+      </c>
+      <c r="L7" s="6">
+        <v>69.680000000000007</v>
+      </c>
+      <c r="M7" s="6">
+        <v>270.16000000000003</v>
+      </c>
+      <c r="N7" s="6">
+        <v>188.23</v>
+      </c>
+      <c r="O7" s="6">
+        <v>177</v>
+      </c>
+      <c r="P7" s="6">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>8482395</v>
+      </c>
+      <c r="R7" s="6">
+        <v>71.3</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.26805555555555555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8470511</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1610840</v>
+      </c>
+      <c r="F8" s="1">
+        <v>552887</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5981342</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5980277</v>
+      </c>
+      <c r="I8" s="9">
+        <v>99.98</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1304491716</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1304453870</v>
+      </c>
+      <c r="L8" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="M8" s="1">
+        <v>154</v>
+      </c>
+      <c r="N8" s="1">
+        <v>154</v>
+      </c>
+      <c r="O8" s="1">
+        <v>147</v>
+      </c>
+      <c r="P8" s="1">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>8459074</v>
+      </c>
+      <c r="R8" s="10">
+        <v>71.5</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>92</v>
       </c>
-      <c r="C7">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9039361</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1092651</v>
-      </c>
-      <c r="F7" s="1">
-        <v>395988</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="C9">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9040703</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1889106</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1237475</v>
+      </c>
+      <c r="G9" s="1">
         <v>7894854</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H9" s="1">
         <v>7629881</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I9" s="6">
         <v>96.64</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J9" s="1">
         <v>2368456200</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K9" s="1">
         <v>1666553376</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L9" s="6">
         <v>70.36</v>
       </c>
-      <c r="M7" s="6">
-        <v>262.02</v>
-      </c>
-      <c r="N7" s="6">
-        <v>184.37</v>
-      </c>
-      <c r="O7" s="6">
-        <v>201</v>
-      </c>
-      <c r="P7" s="6">
-        <v>164</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>9010551</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="M9" s="6">
+        <v>261.98</v>
+      </c>
+      <c r="N9" s="6">
+        <v>184.34</v>
+      </c>
+      <c r="O9" s="6">
+        <v>151</v>
+      </c>
+      <c r="P9" s="6">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>9009106</v>
+      </c>
+      <c r="R9" s="6">
         <v>71.5</v>
       </c>
-      <c r="S7" s="3">
-        <v>0.27291666666666664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="18">
-      <c r="A12" s="2" t="s">
+      <c r="S9" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:19" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16" thickTop="1">
-      <c r="A14" t="s">
+    <row r="16" spans="1:19" ht="16" thickTop="1">
+      <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>1913</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="1">
         <v>3188404</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>63.15</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>27.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4795</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7992422</v>
-      </c>
-      <c r="D15">
-        <v>64.27</v>
-      </c>
-      <c r="E15">
-        <v>27.38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1355</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2258713</v>
-      </c>
-      <c r="D16">
-        <v>62.71</v>
-      </c>
-      <c r="E16">
-        <v>26.62</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>2414</v>
+        <v>4795</v>
       </c>
       <c r="C17" s="1">
-        <v>4023712</v>
+        <v>7992422</v>
       </c>
       <c r="D17">
-        <v>64.38</v>
+        <v>64.27</v>
       </c>
       <c r="E17">
-        <v>27.37</v>
+        <v>27.38</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1355</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2258713</v>
+      </c>
+      <c r="D18">
+        <v>62.71</v>
+      </c>
+      <c r="E18">
+        <v>26.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2414</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4023712</v>
+      </c>
+      <c r="D19">
+        <v>64.38</v>
+      </c>
+      <c r="E19">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="1">
         <v>2368</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="1">
         <v>3947427</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>64.66</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>27.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="1">
-        <f>SUM(B14:B18)</f>
+    <row r="21" spans="1:5">
+      <c r="B21" s="1">
+        <f>SUM(B16:B20)</f>
         <v>12845</v>
       </c>
-      <c r="C19" s="1">
-        <f>SUM(C14:C18)</f>
+      <c r="C21" s="1">
+        <f>SUM(C16:C20)</f>
         <v>21410678</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:5" ht="18">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="4" t="s">
+    <row r="29" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="16" thickTop="1">
-      <c r="A28" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="16" thickTop="1">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B30" s="6">
         <v>33899</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1914</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6">
-        <v>67257</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B31" s="6">
-        <v>1519486</v>
+        <v>1914</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>67257</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1519486</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>38</v>
       </c>
     </row>
